--- a/SN8 i2c & pins.xlsx
+++ b/SN8 i2c & pins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn-SN8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16695C34-4BF6-4C40-9307-80D956C8A3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509EBDD1-8B35-40F9-8DEF-68936D101448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1361,7 +1361,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1440,6 +1440,12 @@
         <bgColor rgb="FF92CDDC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1469,7 +1475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1596,6 +1602,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30096,7 +30105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -36912,8 +36921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1006EC9-F903-45E1-9B2E-3BBE97776EFB}">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -37090,7 +37099,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="51"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="51" t="s">
         <v>130</v>
       </c>
@@ -37113,7 +37122,7 @@
       <c r="D13" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="74" t="s">
         <v>301</v>
       </c>
     </row>
@@ -37128,7 +37137,7 @@
       <c r="D14" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="74"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="51"/>

--- a/SN8 i2c & pins.xlsx
+++ b/SN8 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509EBDD1-8B35-40F9-8DEF-68936D101448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE80747-9ABB-4E0A-AC06-1D237C1646E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="396">
   <si>
     <t>Action</t>
   </si>
@@ -1029,19 +1029,10 @@
     <t>Returns IP address</t>
   </si>
   <si>
-    <t>BBC Microbit i2c SDA</t>
-  </si>
-  <si>
-    <t>BBC Microbit i2c SCL</t>
-  </si>
-  <si>
     <t>Touch interupt</t>
   </si>
   <si>
     <t>BBC interupt</t>
-  </si>
-  <si>
-    <t>Switch interupt</t>
   </si>
   <si>
     <t>Reset SX1509 for lights when SN7 starts</t>
@@ -30083,17 +30074,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -30125,16 +30116,16 @@
         <v>258</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>3</v>
@@ -30154,17 +30145,17 @@
         <v>151</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="60" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G2" s="56" t="s">
         <v>261</v>
@@ -30177,17 +30168,17 @@
         <v>151</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="60" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G3" s="56" t="s">
         <v>262</v>
@@ -30200,7 +30191,7 @@
         <v>166</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>280</v>
@@ -30221,7 +30212,7 @@
         <v>166</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>280</v>
@@ -30239,18 +30230,18 @@
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
       <c r="F6" s="50" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30258,10 +30249,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="3" t="s">
@@ -30279,10 +30270,10 @@
         <v>105</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>367</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>370</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="3" t="s">
@@ -30300,7 +30291,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D9" s="49" t="s">
         <v>278</v>
@@ -30321,12 +30312,12 @@
         <v>105</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="50" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>277</v>
@@ -30338,12 +30329,12 @@
         <v>105</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
       <c r="F11" s="50" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>277</v>
@@ -30355,7 +30346,7 @@
         <v>293</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>294</v>
@@ -30375,7 +30366,7 @@
         <v>293</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>300</v>
@@ -30395,10 +30386,10 @@
         <v>293</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="65" t="s">
@@ -30415,11 +30406,11 @@
         <v>293</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C15" s="58"/>
       <c r="D15" s="59" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="59"/>
       <c r="F15" s="65" t="s">
@@ -30436,11 +30427,11 @@
         <v>293</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="59" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="65" t="s">
@@ -30457,7 +30448,7 @@
         <v>293</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C17" s="58"/>
       <c r="D17" s="59" t="s">
@@ -30483,10 +30474,10 @@
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="54" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>264</v>
@@ -30508,10 +30499,10 @@
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="64" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G19" s="66" t="s">
         <v>265</v>
@@ -30526,17 +30517,17 @@
         <v>8</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="48" t="s">
         <v>259</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>268</v>
@@ -30549,7 +30540,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="48" t="s">
@@ -30572,7 +30563,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="48" t="s">
@@ -30595,7 +30586,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="48"/>
@@ -30651,7 +30642,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C26" s="58"/>
       <c r="D26" s="48"/>
@@ -30671,7 +30662,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="47"/>
@@ -30691,20 +30682,20 @@
         <v>98</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="70">
         <v>11110000</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30712,15 +30703,15 @@
         <v>87</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C29" s="58"/>
       <c r="D29" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="50" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>267</v>
@@ -30731,15 +30722,15 @@
         <v>87</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C30" s="58"/>
       <c r="D30" s="54" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="50" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>267</v>
@@ -30793,10 +30784,10 @@
       <c r="B34" s="58"/>
       <c r="C34" s="58"/>
       <c r="D34" s="60" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F34" s="56" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G34" s="56" t="s">
         <v>313</v>
@@ -30809,7 +30800,7 @@
       <c r="B35" s="58"/>
       <c r="C35" s="58"/>
       <c r="D35" s="57" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E35" s="57"/>
       <c r="F35" s="66" t="s">
@@ -30911,10 +30902,10 @@
       <c r="B42" s="58"/>
       <c r="C42" s="58"/>
       <c r="D42" s="43" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>313</v>
@@ -30927,10 +30918,10 @@
       <c r="B43" s="58"/>
       <c r="C43" s="58"/>
       <c r="D43" s="43" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>313</v>
@@ -30943,7 +30934,7 @@
       <c r="B44" s="58"/>
       <c r="C44" s="58"/>
       <c r="F44" s="50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>313</v>
@@ -30954,17 +30945,17 @@
         <v>87</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D45" s="54"/>
       <c r="E45" s="54" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G45" s="33" t="s">
         <v>267</v>
@@ -30972,10 +30963,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="33" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C46" s="58"/>
     </row>
@@ -36922,7 +36913,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -36966,7 +36957,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>35</v>
@@ -36980,7 +36971,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>40</v>
@@ -36994,9 +36985,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="51" t="s">
-        <v>332</v>
-      </c>
+      <c r="A5" s="74"/>
       <c r="B5" s="51" t="s">
         <v>55</v>
       </c>
@@ -37049,9 +37038,7 @@
       <c r="D8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>329</v>
-      </c>
+      <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="51" t="s">
@@ -37064,9 +37051,7 @@
       <c r="D9" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="51" t="s">
-        <v>328</v>
-      </c>
+      <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="51" t="s">
@@ -37113,7 +37098,7 @@
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>133</v>
@@ -37128,7 +37113,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="51" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>137</v>

--- a/SN8 i2c & pins.xlsx
+++ b/SN8 i2c & pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE80747-9ABB-4E0A-AC06-1D237C1646E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4637627A-85B4-4730-865A-713790ED26C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="SN1 - Space Rocket" sheetId="4" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Messaging!$A$1:$I$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Messaging!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="395">
   <si>
     <t>Action</t>
   </si>
@@ -903,12 +903,6 @@
     <t>ADC 1</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Resume the DFPlayer</t>
   </si>
   <si>
@@ -1203,9 +1197,6 @@
     <t>returns touch states</t>
   </si>
   <si>
-    <t>1,0,1,1,1,</t>
-  </si>
-  <si>
     <t>LLEDALLOFF</t>
   </si>
   <si>
@@ -1227,10 +1218,16 @@
     <t>STARTING</t>
   </si>
   <si>
-    <t>SWITCHES</t>
+    <t>TUPDATE</t>
   </si>
   <si>
-    <t>TUPDATE</t>
+    <t>SUPDATE</t>
+  </si>
+  <si>
+    <t>SSTATE</t>
+  </si>
+  <si>
+    <t>TSTATE</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1541,9 +1538,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1576,9 +1570,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,7 +1583,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -30074,17 +30064,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -30094,10 +30084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30111,21 +30101,21 @@
     <col min="7" max="7" width="18.6171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="46" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" s="46" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A1" s="46" t="s">
         <v>258</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>3</v>
@@ -30133,65 +30123,55 @@
       <c r="G1" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="61" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="56" t="s">
+    </row>
+    <row r="2" spans="1:7" s="60" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="56" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>375</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="G3" s="56" t="s">
+      <c r="B3" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>280</v>
@@ -30203,16 +30183,13 @@
       <c r="G4" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="H4" s="43" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>280</v>
@@ -30224,35 +30201,32 @@
       <c r="G5" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="H5" s="43" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
       <c r="F6" s="50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="3" t="s">
@@ -30261,19 +30235,16 @@
       <c r="G7" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="H7" s="43" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="3" t="s">
@@ -30282,16 +30253,13 @@
       <c r="G8" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="43" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D9" s="49" t="s">
         <v>278</v>
@@ -30303,246 +30271,221 @@
       <c r="G9" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="43" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
       <c r="F11" s="50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="56" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12" s="59" t="s">
+      <c r="G12" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="65" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="65" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="54" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="G12" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-    </row>
-    <row r="15" spans="1:9" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>379</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-    </row>
-    <row r="16" spans="1:9" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-    </row>
-    <row r="17" spans="1:9" s="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>381</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="62" t="s">
+      <c r="G17" s="55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="54" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="57" t="s">
         <v>264</v>
       </c>
       <c r="D18" s="47"/>
-      <c r="E18" s="54" t="s">
-        <v>371</v>
+      <c r="E18" s="53" t="s">
+        <v>369</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="H18" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9" s="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="63" t="s">
+    </row>
+    <row r="19" spans="1:7" s="54" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="64" t="s">
-        <v>371</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="G19" s="66" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="G19" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="H19" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="I19" s="66"/>
-    </row>
-    <row r="20" spans="1:9" s="55" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="1:7" s="54" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="D20" s="72"/>
+      <c r="B20" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="70"/>
       <c r="E20" s="48" t="s">
         <v>259</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-    </row>
-    <row r="21" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="C21" s="58"/>
+      <c r="B21" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="57"/>
       <c r="D21" s="48" t="s">
         <v>266</v>
       </c>
@@ -30553,19 +30496,15 @@
       <c r="G21" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="H21" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>382</v>
-      </c>
-      <c r="C22" s="58"/>
+      <c r="B22" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" s="57"/>
       <c r="D22" s="48" t="s">
         <v>270</v>
       </c>
@@ -30576,19 +30515,15 @@
       <c r="G22" t="s">
         <v>268</v>
       </c>
-      <c r="H22" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="C23" s="58"/>
+      <c r="B23" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="57"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="33" t="s">
@@ -30597,74 +30532,67 @@
       <c r="G23" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="H23" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" s="68" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="68" t="s">
+    </row>
+    <row r="24" spans="1:7" s="66" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="66" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="69" t="s">
-        <v>314</v>
-      </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="G24" s="68" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="67" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="68" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="69" t="s">
-        <v>315</v>
-      </c>
-      <c r="E25" s="69"/>
-      <c r="G25" s="68" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E25" s="67"/>
+      <c r="G25" s="66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="C26" s="58"/>
+      <c r="B26" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="57"/>
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
       <c r="F26" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="H26" s="47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="C27" s="58"/>
+      <c r="B27" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="C27" s="57"/>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
       <c r="F27" s="33" t="s">
@@ -30673,62 +30601,55 @@
       <c r="G27" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="H27" s="47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>394</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>394</v>
+      <c r="B28" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>393</v>
       </c>
       <c r="D28" s="48"/>
-      <c r="E28" s="70">
-        <v>11110000</v>
-      </c>
+      <c r="E28" s="68"/>
       <c r="F28" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="33" t="s">
         <v>350</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="58" t="s">
-        <v>384</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="54" t="s">
+      <c r="B30" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E30" s="54"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="50" t="s">
         <v>348</v>
       </c>
@@ -30736,248 +30657,282 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="33"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="56" t="s">
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="33"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>327</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="60" t="s">
+      <c r="G33" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="F33" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="G33" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="F34" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="G34" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="55" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="57" t="s">
+      <c r="F34" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="54" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="57"/>
+      <c r="G37" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57" t="s">
         <v>316</v>
       </c>
-      <c r="G35" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58" t="s">
+      <c r="E38" s="57"/>
+      <c r="G38" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="G36" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="E37" s="58"/>
-      <c r="G37" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="E38" s="58"/>
-      <c r="G38" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="E39" s="47"/>
-      <c r="G39" s="33" t="s">
-        <v>313</v>
+      <c r="E39" s="57"/>
+      <c r="G39" s="55" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="F40" s="33" t="s">
-        <v>321</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" s="47"/>
       <c r="G40" s="33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="F41" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="F41" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" s="33" t="s">
         <v>311</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
+        <v>305</v>
+      </c>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="43" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
+        <v>305</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="43" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
+        <v>305</v>
+      </c>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="43" t="s">
+        <v>334</v>
+      </c>
       <c r="F44" s="50" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="F45" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="58" t="s">
-        <v>395</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>395</v>
-      </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54" t="s">
-        <v>386</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>385</v>
-      </c>
-      <c r="G45" s="33" t="s">
+      <c r="B46" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="G46" s="33" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="B46" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="C46" s="58"/>
+    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="C48" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I45" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
-      <sortCondition ref="A1:A45"/>
+  <autoFilter ref="A1:G46" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G46">
+      <sortCondition ref="A1:A46"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I30">
-    <sortCondition ref="A2:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36912,7 +36867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1006EC9-F903-45E1-9B2E-3BBE97776EFB}">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -36957,7 +36912,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="51" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>35</v>
@@ -36971,7 +36926,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="51" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>40</v>
@@ -36985,7 +36940,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="74"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="51" t="s">
         <v>55</v>
       </c>
@@ -37029,7 +36984,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="51" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B8" s="51" t="s">
         <v>88</v>
@@ -37038,11 +36993,11 @@
       <c r="D8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="74"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B9" s="51" t="s">
         <v>96</v>
@@ -37051,11 +37006,11 @@
       <c r="D9" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="74"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="51" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B10" s="51" t="s">
         <v>112</v>
@@ -37065,7 +37020,7 @@
         <v>114</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -37080,11 +37035,11 @@
         <v>126</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="74"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="51" t="s">
         <v>130</v>
       </c>
@@ -37093,12 +37048,12 @@
         <v>131</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="51" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>133</v>
@@ -37107,13 +37062,13 @@
       <c r="D13" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="74" t="s">
-        <v>301</v>
+      <c r="E13" s="71" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="51" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>137</v>
@@ -37122,7 +37077,7 @@
       <c r="D14" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="51"/>
@@ -37239,7 +37194,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="53"/>
+      <c r="E30" s="52"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5"/>
@@ -41253,7 +41208,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -41265,7 +41220,7 @@
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -41277,7 +41232,7 @@
         <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -41289,7 +41244,7 @@
         <v>134</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">

--- a/SN8 i2c & pins.xlsx
+++ b/SN8 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4637627A-85B4-4730-865A-713790ED26C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353C1DEC-7CDB-42C1-B0CB-D2E9C7FC1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="SN1 - Space Rocket" sheetId="4" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Messaging!$A$1:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Messaging!$A$1:$G$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="392">
   <si>
     <t>Action</t>
   </si>
@@ -1080,12 +1080,6 @@
     <t>ESP32</t>
   </si>
   <si>
-    <t>0-50</t>
-  </si>
-  <si>
-    <t>bounce delay</t>
-  </si>
-  <si>
     <t>0-255,0-255</t>
   </si>
   <si>
@@ -1189,9 +1183,6 @@
   </si>
   <si>
     <t>TTHRSLD</t>
-  </si>
-  <si>
-    <t>TBOUNCE</t>
   </si>
   <si>
     <t>returns touch states</t>
@@ -30084,10 +30075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30106,16 +30097,16 @@
         <v>258</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>3</v>
@@ -30129,17 +30120,17 @@
         <v>151</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="59" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>261</v>
@@ -30150,17 +30141,17 @@
         <v>151</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="59" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>262</v>
@@ -30171,7 +30162,7 @@
         <v>166</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>280</v>
@@ -30189,7 +30180,7 @@
         <v>166</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>280</v>
@@ -30223,10 +30214,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="3" t="s">
@@ -30241,10 +30232,10 @@
         <v>105</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="3" t="s">
@@ -30259,7 +30250,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D9" s="49" t="s">
         <v>278</v>
@@ -30277,7 +30268,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
@@ -30293,7 +30284,7 @@
         <v>105</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
@@ -30309,7 +30300,7 @@
         <v>291</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D12" s="58" t="s">
         <v>292</v>
@@ -30327,7 +30318,7 @@
         <v>291</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" s="58" t="s">
         <v>298</v>
@@ -30345,10 +30336,10 @@
         <v>291</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="64" t="s">
@@ -30363,11 +30354,11 @@
         <v>291</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="58" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="64" t="s">
@@ -30382,11 +30373,11 @@
         <v>291</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="58" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="64" t="s">
@@ -30401,7 +30392,7 @@
         <v>291</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="58" t="s">
@@ -30427,10 +30418,10 @@
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="53" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>264</v>
@@ -30448,10 +30439,10 @@
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G19" s="65" t="s">
         <v>265</v>
@@ -30462,17 +30453,17 @@
         <v>8</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="48" t="s">
         <v>259</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>268</v>
@@ -30483,7 +30474,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="48" t="s">
@@ -30502,7 +30493,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="48" t="s">
@@ -30521,7 +30512,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="48"/>
@@ -30573,7 +30564,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="48"/>
@@ -30590,7 +30581,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="47"/>
@@ -30607,15 +30598,15 @@
         <v>98</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="68"/>
       <c r="F28" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>341</v>
@@ -30627,12 +30618,12 @@
       </c>
       <c r="B29" s="57"/>
       <c r="C29" s="57" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="68"/>
       <c r="F29" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>341</v>
@@ -30643,47 +30634,44 @@
         <v>87</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="50" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>382</v>
-      </c>
+    <row r="31" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="33"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="57"/>
-      <c r="D31" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="55" t="s">
+        <v>323</v>
+      </c>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="33"/>
+      <c r="D32" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="55" t="s">
@@ -30692,10 +30680,10 @@
       <c r="B33" s="57"/>
       <c r="C33" s="57"/>
       <c r="D33" s="59" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>311</v>
@@ -30708,44 +30696,42 @@
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
       <c r="D34" s="59" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" s="54" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="55" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B35" s="57"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>337</v>
+      <c r="D35" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="65" t="s">
+        <v>314</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="54" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="55" t="s">
         <v>305</v>
       </c>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
-      <c r="D36" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="65" t="s">
-        <v>314</v>
-      </c>
+      <c r="D36" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="E36" s="57"/>
       <c r="G36" s="55" t="s">
         <v>311</v>
       </c>
@@ -30757,7 +30743,7 @@
       <c r="B37" s="57"/>
       <c r="C37" s="57"/>
       <c r="D37" s="57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E37" s="57"/>
       <c r="G37" s="55" t="s">
@@ -30771,24 +30757,24 @@
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E38" s="57"/>
       <c r="G38" s="55" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="55" t="s">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="33" t="s">
         <v>305</v>
       </c>
       <c r="B39" s="57"/>
       <c r="C39" s="57"/>
-      <c r="D39" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="E39" s="57"/>
-      <c r="G39" s="55" t="s">
+      <c r="D39" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="47"/>
+      <c r="G39" s="33" t="s">
         <v>311</v>
       </c>
     </row>
@@ -30798,22 +30784,24 @@
       </c>
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
-      <c r="D40" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="E40" s="47"/>
+      <c r="F40" s="33" t="s">
+        <v>319</v>
+      </c>
       <c r="G40" s="33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="33" t="s">
         <v>305</v>
       </c>
       <c r="B41" s="57"/>
       <c r="C41" s="57"/>
-      <c r="F41" s="33" t="s">
-        <v>319</v>
+      <c r="D41" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>309</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>311</v>
@@ -30826,10 +30814,10 @@
       <c r="B42" s="57"/>
       <c r="C42" s="57"/>
       <c r="D42" s="43" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>311</v>
@@ -30845,7 +30833,7 @@
         <v>334</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>311</v>
@@ -30857,82 +30845,66 @@
       </c>
       <c r="B44" s="57"/>
       <c r="C44" s="57"/>
-      <c r="D44" s="43" t="s">
-        <v>334</v>
-      </c>
       <c r="F44" s="50" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
+        <v>87</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="50" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>394</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>394</v>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57" t="s">
+        <v>388</v>
       </c>
       <c r="D46" s="53"/>
       <c r="E46" s="53"/>
       <c r="F46" s="50" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G46" s="33" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57" t="s">
-        <v>391</v>
-      </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="50" t="s">
-        <v>383</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>390</v>
-      </c>
-      <c r="C48" s="57"/>
+        <v>386</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="C47" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G46" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G46">
-      <sortCondition ref="A1:A46"/>
+  <autoFilter ref="A1:G45" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G45">
+      <sortCondition ref="A1:A45"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition ref="A2:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G30">
+    <sortCondition ref="A2:A30"/>
   </sortState>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37053,7 +37025,7 @@
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>133</v>
@@ -37068,7 +37040,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>137</v>

--- a/SN8 i2c & pins.xlsx
+++ b/SN8 i2c & pins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353C1DEC-7CDB-42C1-B0CB-D2E9C7FC1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFAD64-7952-4D5B-B523-340525B5FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="394">
   <si>
     <t>Action</t>
   </si>
@@ -1220,6 +1220,12 @@
   <si>
     <t>TSTATE</t>
   </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
 </sst>
 </file>
 
@@ -30075,10 +30081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30896,6 +30902,17 @@
         <v>387</v>
       </c>
       <c r="C47" s="57"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G45" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">

--- a/SN8 i2c & pins.xlsx
+++ b/SN8 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFAD64-7952-4D5B-B523-340525B5FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D3D64-5373-4708-A738-5C7B1163CA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="397">
   <si>
     <t>Action</t>
   </si>
@@ -1203,12 +1203,6 @@
     <t>From ESP32</t>
   </si>
   <si>
-    <t>Starting</t>
-  </si>
-  <si>
-    <t>STARTING</t>
-  </si>
-  <si>
     <t>TUPDATE</t>
   </si>
   <si>
@@ -1225,6 +1219,21 @@
   </si>
   <si>
     <t>message</t>
+  </si>
+  <si>
+    <t>topic , message</t>
+  </si>
+  <si>
+    <t>PUBLISH</t>
+  </si>
+  <si>
+    <t>SUBSCRIBE</t>
+  </si>
+  <si>
+    <t>UNSUBSCRIBE</t>
+  </si>
+  <si>
+    <t>IoT</t>
   </si>
 </sst>
 </file>
@@ -30081,10 +30090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30604,10 +30613,10 @@
         <v>98</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="68"/>
@@ -30624,7 +30633,7 @@
       </c>
       <c r="B29" s="57"/>
       <c r="C29" s="57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="68"/>
@@ -30863,10 +30872,10 @@
         <v>87</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D45" s="53"/>
       <c r="E45" s="53"/>
@@ -30883,7 +30892,7 @@
       </c>
       <c r="B46" s="57"/>
       <c r="C46" s="57" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D46" s="53"/>
       <c r="E46" s="53"/>
@@ -30896,22 +30905,54 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="33" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="C47" s="57"/>
+        <v>390</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="B48" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="D48" s="43" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B49" s="57" t="s">
         <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
